--- a/finding results_hs300/results/results summary.xlsx
+++ b/finding results_hs300/results/results summary.xlsx
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.01288900973254069</v>
+        <v>0.01101374406241354</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.706272785921716</v>
+        <v>1.764550985775517</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01265198091333606</v>
+        <v>0.01089693437006721</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.734333532115963</v>
+        <v>1.916592697298104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.004732574120289924</v>
+        <v>0.007177709782828446</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.7025444243238533</v>
+        <v>1.024629697703371</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.005243346263398892</v>
+        <v>0.009594020916139385</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.5910715564022674</v>
+        <v>1.076753637522897</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.006609485455192922</v>
+        <v>0.01309846124588495</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.090037311098732</v>
+        <v>2.326013618845075</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01396535732322935</v>
+        <v>0.01151908180852928</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.580750438497253</v>
+        <v>2.020661014961109</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.00553259420289855</v>
+        <v>0.006908226666666666</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.101830578813225</v>
+        <v>1.336841769747743</v>
       </c>
     </row>
   </sheetData>

--- a/finding results_hs300/results/results summary.xlsx
+++ b/finding results_hs300/results/results summary.xlsx
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.01101374406241354</v>
+        <v>0.01515026353851839</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.764550985775517</v>
+        <v>2.915354652230888</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01089693437006721</v>
+        <v>0.01853214662984927</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.916592697298104</v>
+        <v>4.20984550035295</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.007177709782828446</v>
+        <v>0.0140143595875326</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.024629697703371</v>
+        <v>2.247408109085565</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.009594020916139385</v>
+        <v>0.02076234959036429</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.076753637522897</v>
+        <v>4.54163334355298</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.01309846124588495</v>
+        <v>0.02381338802552489</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2.326013618845075</v>
+        <v>6.751044765960076</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01151908180852928</v>
+        <v>0.01818056639152506</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.020661014961109</v>
+        <v>3.692401777136904</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.006908226666666666</v>
+        <v>0.009013895424836603</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.336841769747743</v>
+        <v>1.832211406238504</v>
       </c>
     </row>
   </sheetData>

--- a/finding results_hs300/results/results summary.xlsx
+++ b/finding results_hs300/results/results summary.xlsx
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.01515026353851839</v>
+        <v>0.01633761590921791</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.915354652230888</v>
+        <v>3.940122727591116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01853214662984927</v>
+        <v>0.0030371540669004</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.20984550035295</v>
+        <v>1.624848490966157</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0140143595875326</v>
+        <v>0.0104554312013157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.247408109085565</v>
+        <v>1.704585940210534</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.02076234959036429</v>
+        <v>-0.000314840931801441</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4.54163334355298</v>
+        <v>1.078528014042624</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02381338802552489</v>
+        <v>0.02423949125275406</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6.751044765960076</v>
+        <v>8.413663146058184</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01818056639152506</v>
+        <v>0.0001003675768898546</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.692401777136904</v>
+        <v>0.9292633479365086</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.009013895424836603</v>
+        <v>0.008887666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.832211406238504</v>
+        <v>1.809107154517068</v>
       </c>
     </row>
   </sheetData>

--- a/finding results_hs300/results/results summary.xlsx
+++ b/finding results_hs300/results/results summary.xlsx
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.01633761590921791</v>
+        <v>0.009477780081048718</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.940122727591116</v>
+        <v>1.463079626652033</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0030371540669004</v>
+        <v>0.01416813281244202</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.624848490966157</v>
+        <v>2.088567218099899</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.0104554312013157</v>
+        <v>0.01129881768780296</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.704585940210534</v>
+        <v>1.519010205859049</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.000314840931801441</v>
+        <v>0.01303365711774651</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.078528014042624</v>
+        <v>1.558056530735035</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.02423949125275406</v>
+        <v>0.01693809145329565</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>8.413663146058184</v>
+        <v>2.724448178691542</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.0001003675768898546</v>
+        <v>0.01824720317651921</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.9292633479365086</v>
+        <v>2.746108625552673</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.008887666666666667</v>
+        <v>0.007122475000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.809107154517068</v>
+        <v>1.276415359921591</v>
       </c>
     </row>
   </sheetData>

--- a/finding results_hs300/results/results summary.xlsx
+++ b/finding results_hs300/results/results summary.xlsx
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.009477780081048718</v>
+        <v>0.01188477560701148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -446,7 +446,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.463079626652033</v>
+        <v>1.888292325077222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -454,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.01416813281244202</v>
+        <v>0.01254694842635694</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.088567218099899</v>
+        <v>2.069433358569184</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01129881768780296</v>
+        <v>0.02111428622356835</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.519010205859049</v>
+        <v>4.497506272876651</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -486,7 +486,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.01303365711774651</v>
+        <v>0.01500498856315718</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.558056530735035</v>
+        <v>2.506209217700944</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -502,7 +502,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.01693809145329565</v>
+        <v>0.02197129525660021</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2.724448178691542</v>
+        <v>6.917531659087646</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -518,7 +518,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01824720317651921</v>
+        <v>0.02911307892659888</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -526,7 +526,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.746108625552673</v>
+        <v>11.38582383075661</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -534,7 +534,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.007122475000000001</v>
+        <v>0.009644460000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -542,7 +542,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.276415359921591</v>
+        <v>1.815737343504564</v>
       </c>
     </row>
   </sheetData>
